--- a/rapporter_2025/Kostra 18 - Bruer under 10t.xlsx
+++ b/rapporter_2025/Kostra 18 - Bruer under 10t.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andryg\Documents\NVDB-Skripting\src\arb_kostrarapportering_2025\rapporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546EC826-EFAE-439F-8F04-5925E9C5995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4DCEE2-7881-4CCE-AD5C-E0D870F64450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34530" yWindow="2355" windowWidth="28800" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32040" yWindow="2610" windowWidth="13230" windowHeight="16050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bruer under 10t" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -429,12 +428,12 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="26.5703125" customWidth="1"/>
+    <col min="1" max="3" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -453,7 +452,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>2352</v>
+        <v>2326</v>
       </c>
       <c r="C2">
         <v>106</v>
@@ -464,10 +463,10 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="C3">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -475,10 +474,10 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>1054</v>
+        <v>1110</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -486,10 +485,10 @@
         <v>31</v>
       </c>
       <c r="B5">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -497,10 +496,10 @@
         <v>32</v>
       </c>
       <c r="B6">
-        <v>1652</v>
+        <v>1438</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -508,10 +507,10 @@
         <v>33</v>
       </c>
       <c r="B7">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -519,10 +518,10 @@
         <v>34</v>
       </c>
       <c r="B8">
-        <v>4406</v>
+        <v>4247</v>
       </c>
       <c r="C8">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -552,10 +551,10 @@
         <v>42</v>
       </c>
       <c r="B11">
-        <v>2166</v>
+        <v>2225</v>
       </c>
       <c r="C11">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -563,10 +562,10 @@
         <v>46</v>
       </c>
       <c r="B12">
-        <v>2248</v>
+        <v>2149</v>
       </c>
       <c r="C12">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -574,10 +573,10 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>4614</v>
+        <v>4496</v>
       </c>
       <c r="C13">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -585,10 +584,10 @@
         <v>55</v>
       </c>
       <c r="B14">
-        <v>1198</v>
+        <v>1211</v>
       </c>
       <c r="C14">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -611,14 +610,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="75.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
